--- a/FinalProject/ds.xlsx
+++ b/FinalProject/ds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelapaiva/Documents/Data Science Course - UoT/titanic-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelapaiva/Documents/GitHub/DataScience/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E7C32B-8237-E343-B191-CC944EB6C02E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C50DCD-6149-9F46-BD4E-85404F43F38E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="74">
   <si>
     <t>kwID</t>
   </si>
@@ -707,10 +707,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="E1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1248,7 +1248,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>17</v>
@@ -1424,7 +1424,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>17</v>
@@ -1438,7 +1438,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>17</v>
@@ -1452,7 +1452,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>17</v>
@@ -1466,7 +1466,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>17</v>
@@ -1480,26 +1480,12 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
-        <v>54</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="12" t="s">
         <v>15</v>
       </c>
     </row>
